--- a/output/232б.xlsx
+++ b/output/232б.xlsx
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,22 +568,22 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>02.02.2025</t>
+          <t>01.02.2025</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>Вс</t>
+          <t>Сб</t>
         </is>
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>'1-1</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>13:10-16:25</t>
+          <t>09:00-12:15</t>
         </is>
       </c>
       <c r="F3" s="6" t="inlineStr">
@@ -593,129 +593,125 @@
       </c>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>микробиология, вирусология</t>
+          <t>гигиена</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="4" t="inlineStr">
         <is>
+          <t>02.02.2025</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Вс</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>микробиология, вирусология</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>03.02.2025</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>нормальная физиология</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
           <t>04.02.2025</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Вт</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G6" s="7" t="inlineStr">
         <is>
           <t>патологическая анатомия</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="n"/>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>06.02.2025</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>Чт</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E5" s="11" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G5" s="12" t="inlineStr">
-        <is>
-          <t>топографическая анатомия и оперативная хирургия</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>09.02.2025</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Вс</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G6" s="7" t="inlineStr">
-        <is>
-          <t>микробиология, вирусология</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>11.02.2025</t>
+          <t>05.02.2025</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Вт</t>
+          <t>Ср</t>
         </is>
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>'1-1</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
-          <t>13:10-16:25</t>
+          <t>09:00-12:15</t>
         </is>
       </c>
       <c r="F7" s="6" t="inlineStr">
@@ -725,7 +721,7 @@
       </c>
       <c r="G7" s="7" t="inlineStr">
         <is>
-          <t>патофизиология</t>
+          <t>биохимия</t>
         </is>
       </c>
     </row>
@@ -733,7 +729,7 @@
       <c r="A8" s="8" t="n"/>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>13.02.2025</t>
+          <t>06.02.2025</t>
         </is>
       </c>
       <c r="C8" s="10" t="inlineStr">
@@ -764,26 +760,26 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>16.02.2025</t>
+          <t>08.02.2025</t>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>Вс</t>
+          <t>Сб</t>
         </is>
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>'1-1</t>
         </is>
       </c>
       <c r="E9" s="6" t="inlineStr">
         <is>
-          <t>13:10-16:25</t>
+          <t>09:00-12:15</t>
         </is>
       </c>
       <c r="F9" s="6" t="inlineStr">
@@ -793,89 +789,85 @@
       </c>
       <c r="G9" s="7" t="inlineStr">
         <is>
-          <t>микробиология, вирусология</t>
+          <t>патофизиология</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>18.02.2025</t>
+          <t>09.02.2025</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
+          <t>Вс</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>микробиология, вирусология</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>10.02.2025</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr">
+        <is>
+          <t>безопасность жизнедеятельности</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
           <t>Вт</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr">
-        <is>
-          <t>патологическая анатомия</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="n"/>
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>20.02.2025</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Чт</t>
-        </is>
-      </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E11" s="11" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F11" s="11" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G11" s="12" t="inlineStr">
-        <is>
-          <t>топографическая анатомия и оперативная хирургия</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>23.02.2025</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>Вс</t>
-        </is>
-      </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
           <t>'2-1</t>
@@ -893,29 +885,29 @@
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>микробиология, вирусология</t>
+          <t>патофизиология</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>25.02.2025</t>
+          <t>12.02.2025</t>
         </is>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Вт</t>
+          <t>Ср</t>
         </is>
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>'1-1</t>
         </is>
       </c>
       <c r="E13" s="6" t="inlineStr">
         <is>
-          <t>13:10-16:25</t>
+          <t>09:00-12:15</t>
         </is>
       </c>
       <c r="F13" s="6" t="inlineStr">
@@ -925,7 +917,7 @@
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
-          <t>патофизиология</t>
+          <t>биохимия</t>
         </is>
       </c>
     </row>
@@ -933,7 +925,7 @@
       <c r="A14" s="8" t="n"/>
       <c r="B14" s="9" t="inlineStr">
         <is>
-          <t>27.02.2025</t>
+          <t>13.02.2025</t>
         </is>
       </c>
       <c r="C14" s="10" t="inlineStr">
@@ -958,100 +950,96 @@
       </c>
       <c r="G14" s="12" t="inlineStr">
         <is>
-          <t>патофизиология</t>
+          <t>топографическая анатомия и оперативная хирургия</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>02.03.2025</t>
+          <t>15.02.2025</t>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr">
+        <is>
+          <t>гигиена</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>16.02.2025</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
           <t>Вс</t>
         </is>
       </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
         <is>
           <t>микробиология, вирусология</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="8" t="n"/>
-      <c r="B16" s="9" t="inlineStr">
-        <is>
-          <t>04.03.2025</t>
-        </is>
-      </c>
-      <c r="C16" s="10" t="inlineStr">
-        <is>
-          <t>Вт</t>
-        </is>
-      </c>
-      <c r="D16" s="11" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F16" s="11" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G16" s="12" t="inlineStr">
-        <is>
-          <t>патологическая анатомия</t>
-        </is>
-      </c>
-    </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>6</v>
-      </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>09.03.2025</t>
+          <t>17.02.2025</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>Вс</t>
+          <t>Пн</t>
         </is>
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>'1-1</t>
         </is>
       </c>
       <c r="E17" s="6" t="inlineStr">
         <is>
-          <t>13:10-16:25</t>
+          <t>09:00-12:15</t>
         </is>
       </c>
       <c r="F17" s="6" t="inlineStr">
@@ -1061,14 +1049,14 @@
       </c>
       <c r="G17" s="7" t="inlineStr">
         <is>
-          <t>микробиология, вирусология</t>
+          <t>нормальная физиология</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>11.03.2025</t>
+          <t>18.02.2025</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
@@ -1093,165 +1081,161 @@
       </c>
       <c r="G18" s="7" t="inlineStr">
         <is>
-          <t>патофизиология</t>
+          <t>патологическая анатомия</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="n"/>
-      <c r="B19" s="9" t="inlineStr">
-        <is>
-          <t>13.03.2025</t>
-        </is>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>19.02.2025</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>Ср</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr">
+        <is>
+          <t>философия</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n"/>
+      <c r="B20" s="9" t="inlineStr">
+        <is>
+          <t>20.02.2025</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
         <is>
           <t>Чт</t>
         </is>
       </c>
-      <c r="D19" s="11" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E19" s="11" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F19" s="11" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G19" s="12" t="inlineStr">
-        <is>
-          <t>нормальная физиология</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>16.03.2025</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E20" s="11" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F20" s="11" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>топографическая анатомия и оперативная хирургия</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>22.02.2025</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr">
+        <is>
+          <t>гигиена</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>23.02.2025</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Вс</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E20" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F20" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G20" s="7" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr">
         <is>
           <t>микробиология, вирусология</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>18.03.2025</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>Вт</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr">
-        <is>
-          <t>патологическая анатомия</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="n"/>
-      <c r="B22" s="9" t="inlineStr">
-        <is>
-          <t>20.03.2025</t>
-        </is>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t>Чт</t>
-        </is>
-      </c>
-      <c r="D22" s="11" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E22" s="11" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F22" s="11" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G22" s="12" t="inlineStr">
-        <is>
-          <t>топографическая анатомия и оперативная хирургия</t>
-        </is>
-      </c>
-    </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>8</v>
-      </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>23.03.2025</t>
+          <t>24.02.2025</t>
         </is>
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>Вс</t>
+          <t>Пн</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>'1-1</t>
         </is>
       </c>
       <c r="E23" s="6" t="inlineStr">
         <is>
-          <t>13:10-16:25</t>
+          <t>09:00-12:15</t>
         </is>
       </c>
       <c r="F23" s="6" t="inlineStr">
@@ -1261,14 +1245,14 @@
       </c>
       <c r="G23" s="7" t="inlineStr">
         <is>
-          <t>микробиология, вирусология</t>
+          <t>безопасность жизнедеятельности</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>25.03.2025</t>
+          <t>25.02.2025</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
@@ -1298,177 +1282,173 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="n"/>
-      <c r="B25" s="9" t="inlineStr">
-        <is>
-          <t>27.03.2025</t>
-        </is>
-      </c>
-      <c r="C25" s="10" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>26.02.2025</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>Ср</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F25" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G25" s="7" t="inlineStr">
+        <is>
+          <t>патологическая анатомия</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="n"/>
+      <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>27.02.2025</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
         <is>
           <t>Чт</t>
         </is>
       </c>
-      <c r="D25" s="11" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E25" s="11" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G25" s="12" t="inlineStr">
+      <c r="D26" s="11" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E26" s="11" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F26" s="11" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G26" s="12" t="inlineStr">
+        <is>
+          <t>патофизиология</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>01.03.2025</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F27" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G27" s="7" t="inlineStr">
+        <is>
+          <t>гигиена</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>02.03.2025</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>Вс</t>
+        </is>
+      </c>
+      <c r="D28" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G28" s="7" t="inlineStr">
+        <is>
+          <t>микробиология, вирусология</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>03.03.2025</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F29" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G29" s="7" t="inlineStr">
         <is>
           <t>нормальная физиология</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>30.03.2025</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>Вс</t>
-        </is>
-      </c>
-      <c r="D26" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E26" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G26" s="7" t="inlineStr">
-        <is>
-          <t>микробиология, вирусология</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>01.04.2025</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>Вт</t>
-        </is>
-      </c>
-      <c r="D27" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E27" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F27" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G27" s="7" t="inlineStr">
-        <is>
-          <t>патологическая анатомия</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="9" t="inlineStr">
-        <is>
-          <t>03.04.2025</t>
-        </is>
-      </c>
-      <c r="C28" s="10" t="inlineStr">
-        <is>
-          <t>Чт</t>
-        </is>
-      </c>
-      <c r="D28" s="11" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E28" s="11" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F28" s="11" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G28" s="12" t="inlineStr">
-        <is>
-          <t>топографическая анатомия и оперативная хирургия</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>06.04.2025</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>Вс</t>
-        </is>
-      </c>
-      <c r="D29" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F29" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G29" s="7" t="inlineStr">
-        <is>
-          <t>микробиология, вирусология</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>08.04.2025</t>
+          <t>04.03.2025</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
@@ -1493,7 +1473,7 @@
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
-          <t>патофизиология</t>
+          <t>патологическая анатомия</t>
         </is>
       </c>
     </row>
@@ -1501,22 +1481,22 @@
       <c r="A31" s="8" t="n"/>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>10.04.2025</t>
+          <t>05.03.2025</t>
         </is>
       </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
-          <t>Чт</t>
+          <t>Ср</t>
         </is>
       </c>
       <c r="D31" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>'1-1</t>
         </is>
       </c>
       <c r="E31" s="11" t="inlineStr">
         <is>
-          <t>13:10-16:25</t>
+          <t>09:00-12:15</t>
         </is>
       </c>
       <c r="F31" s="11" t="inlineStr">
@@ -1526,32 +1506,32 @@
       </c>
       <c r="G31" s="12" t="inlineStr">
         <is>
-          <t>нормальная физиология</t>
+          <t>биохимия</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>13.04.2025</t>
+          <t>08.03.2025</t>
         </is>
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>Вс</t>
+          <t>Сб</t>
         </is>
       </c>
       <c r="D32" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>'1-1</t>
         </is>
       </c>
       <c r="E32" s="6" t="inlineStr">
         <is>
-          <t>13:10-16:25</t>
+          <t>09:00-12:15</t>
         </is>
       </c>
       <c r="F32" s="6" t="inlineStr">
@@ -1561,89 +1541,85 @@
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>микробиология, вирусология</t>
+          <t>гигиена</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>15.04.2025</t>
+          <t>09.03.2025</t>
         </is>
       </c>
       <c r="C33" s="5" t="inlineStr">
         <is>
+          <t>Вс</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F33" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G33" s="7" t="inlineStr">
+        <is>
+          <t>микробиология, вирусология</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>10.03.2025</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G34" s="7" t="inlineStr">
+        <is>
+          <t>безопасность жизнедеятельности</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>11.03.2025</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
           <t>Вт</t>
         </is>
       </c>
-      <c r="D33" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E33" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F33" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G33" s="7" t="inlineStr">
-        <is>
-          <t>патологическая анатомия</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="n"/>
-      <c r="B34" s="9" t="inlineStr">
-        <is>
-          <t>17.04.2025</t>
-        </is>
-      </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
-          <t>Чт</t>
-        </is>
-      </c>
-      <c r="D34" s="11" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E34" s="11" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F34" s="11" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G34" s="12" t="inlineStr">
-        <is>
-          <t>топографическая анатомия и оперативная хирургия</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>20.04.2025</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>Вс</t>
-        </is>
-      </c>
       <c r="D35" s="6" t="inlineStr">
         <is>
           <t>'2-1</t>
@@ -1661,29 +1637,29 @@
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
-          <t>микробиология, вирусология</t>
+          <t>патофизиология</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>22.04.2025</t>
+          <t>12.03.2025</t>
         </is>
       </c>
       <c r="C36" s="5" t="inlineStr">
         <is>
-          <t>Вт</t>
+          <t>Ср</t>
         </is>
       </c>
       <c r="D36" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>'1-1</t>
         </is>
       </c>
       <c r="E36" s="6" t="inlineStr">
         <is>
-          <t>13:10-16:25</t>
+          <t>09:00-12:15</t>
         </is>
       </c>
       <c r="F36" s="6" t="inlineStr">
@@ -1693,7 +1669,7 @@
       </c>
       <c r="G36" s="7" t="inlineStr">
         <is>
-          <t>патофизиология</t>
+          <t>патологическая анатомия</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1677,7 @@
       <c r="A37" s="8" t="n"/>
       <c r="B37" s="9" t="inlineStr">
         <is>
-          <t>24.04.2025</t>
+          <t>13.03.2025</t>
         </is>
       </c>
       <c r="C37" s="10" t="inlineStr">
@@ -1732,247 +1708,239 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>27.04.2025</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="C38" s="5" t="inlineStr">
         <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D38" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F38" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G38" s="7" t="inlineStr">
+        <is>
+          <t>гигиена</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>16.03.2025</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
           <t>Вс</t>
         </is>
       </c>
-      <c r="D38" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E38" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F38" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G38" s="7" t="inlineStr">
+      <c r="D39" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F39" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G39" s="7" t="inlineStr">
         <is>
           <t>микробиология, вирусология</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="8" t="n"/>
-      <c r="B39" s="9" t="inlineStr">
-        <is>
-          <t>01.05.2025</t>
-        </is>
-      </c>
-      <c r="C39" s="10" t="inlineStr">
+    <row r="40">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>17.03.2025</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D40" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F40" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G40" s="7" t="inlineStr">
+        <is>
+          <t>нормальная физиология</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>18.03.2025</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>Вт</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G41" s="7" t="inlineStr">
+        <is>
+          <t>патологическая анатомия</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>19.03.2025</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>Ср</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F42" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G42" s="7" t="inlineStr">
+        <is>
+          <t>философия</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="n"/>
+      <c r="B43" s="9" t="inlineStr">
+        <is>
+          <t>20.03.2025</t>
+        </is>
+      </c>
+      <c r="C43" s="10" t="inlineStr">
         <is>
           <t>Чт</t>
         </is>
       </c>
-      <c r="D39" s="11" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E39" s="11" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F39" s="11" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G39" s="12" t="inlineStr">
+      <c r="D43" s="11" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E43" s="11" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F43" s="11" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G43" s="12" t="inlineStr">
         <is>
           <t>топографическая анатомия и оперативная хирургия</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>04.05.2025</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>Вс</t>
-        </is>
-      </c>
-      <c r="D40" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E40" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F40" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G40" s="7" t="inlineStr">
-        <is>
-          <t>микробиология, вирусология</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="8" t="n"/>
-      <c r="B41" s="9" t="inlineStr">
-        <is>
-          <t>08.05.2025</t>
-        </is>
-      </c>
-      <c r="C41" s="10" t="inlineStr">
-        <is>
-          <t>Чт</t>
-        </is>
-      </c>
-      <c r="D41" s="11" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E41" s="11" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F41" s="11" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G41" s="12" t="inlineStr">
-        <is>
-          <t>нормальная физиология</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>11.05.2025</t>
-        </is>
-      </c>
-      <c r="C42" s="5" t="inlineStr">
-        <is>
-          <t>Вс</t>
-        </is>
-      </c>
-      <c r="D42" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E42" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F42" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G42" s="7" t="inlineStr">
-        <is>
-          <t>микробиология, вирусология</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>13.05.2025</t>
-        </is>
-      </c>
-      <c r="C43" s="5" t="inlineStr">
-        <is>
-          <t>Вт</t>
-        </is>
-      </c>
-      <c r="D43" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E43" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F43" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G43" s="7" t="inlineStr">
-        <is>
-          <t>патологическая анатомия</t>
-        </is>
-      </c>
-    </row>
     <row r="44">
-      <c r="A44" s="8" t="n"/>
-      <c r="B44" s="9" t="inlineStr">
-        <is>
-          <t>15.05.2025</t>
-        </is>
-      </c>
-      <c r="C44" s="10" t="inlineStr">
-        <is>
-          <t>Чт</t>
-        </is>
-      </c>
-      <c r="D44" s="11" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E44" s="11" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F44" s="11" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G44" s="12" t="inlineStr">
-        <is>
-          <t>топографическая анатомия и оперативная хирургия</t>
+      <c r="A44" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>22.03.2025</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D44" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G44" s="7" t="inlineStr">
+        <is>
+          <t>гигиена</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
-        <v>16</v>
-      </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>18.05.2025</t>
+          <t>23.03.2025</t>
         </is>
       </c>
       <c r="C45" s="5" t="inlineStr">
@@ -2004,188 +1972,1889 @@
     <row r="46">
       <c r="B46" s="4" t="inlineStr">
         <is>
+          <t>24.03.2025</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D46" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F46" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G46" s="7" t="inlineStr">
+        <is>
+          <t>безопасность жизнедеятельности</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>25.03.2025</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>Вт</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F47" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G47" s="7" t="inlineStr">
+        <is>
+          <t>патофизиология</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>26.03.2025</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>Ср</t>
+        </is>
+      </c>
+      <c r="D48" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F48" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G48" s="7" t="inlineStr">
+        <is>
+          <t>биохимия</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="n"/>
+      <c r="B49" s="9" t="inlineStr">
+        <is>
+          <t>27.03.2025</t>
+        </is>
+      </c>
+      <c r="C49" s="10" t="inlineStr">
+        <is>
+          <t>Чт</t>
+        </is>
+      </c>
+      <c r="D49" s="11" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E49" s="11" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F49" s="11" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G49" s="12" t="inlineStr">
+        <is>
+          <t>нормальная физиология</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>29.03.2025</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F50" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G50" s="7" t="inlineStr">
+        <is>
+          <t>гигиена</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>30.03.2025</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>Вс</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F51" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G51" s="7" t="inlineStr">
+        <is>
+          <t>микробиология, вирусология</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>31.03.2025</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F52" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G52" s="7" t="inlineStr">
+        <is>
+          <t>нормальная физиология</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>01.04.2025</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>Вт</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F53" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G53" s="7" t="inlineStr">
+        <is>
+          <t>патологическая анатомия</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>02.04.2025</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>Ср</t>
+        </is>
+      </c>
+      <c r="D54" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F54" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G54" s="7" t="inlineStr">
+        <is>
+          <t>философия</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="n"/>
+      <c r="B55" s="9" t="inlineStr">
+        <is>
+          <t>03.04.2025</t>
+        </is>
+      </c>
+      <c r="C55" s="10" t="inlineStr">
+        <is>
+          <t>Чт</t>
+        </is>
+      </c>
+      <c r="D55" s="11" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E55" s="11" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F55" s="11" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G55" s="12" t="inlineStr">
+        <is>
+          <t>топографическая анатомия и оперативная хирургия</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>05.04.2025</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D56" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F56" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G56" s="7" t="inlineStr">
+        <is>
+          <t>гигиена</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>06.04.2025</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>Вс</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F57" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G57" s="7" t="inlineStr">
+        <is>
+          <t>микробиология, вирусология</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>07.04.2025</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D58" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F58" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G58" s="7" t="inlineStr">
+        <is>
+          <t>безопасность жизнедеятельности</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>08.04.2025</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>Вт</t>
+        </is>
+      </c>
+      <c r="D59" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F59" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G59" s="7" t="inlineStr">
+        <is>
+          <t>патофизиология</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>09.04.2025</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>Ср</t>
+        </is>
+      </c>
+      <c r="D60" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E60" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F60" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G60" s="7" t="inlineStr">
+        <is>
+          <t>биохимия</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="n"/>
+      <c r="B61" s="9" t="inlineStr">
+        <is>
+          <t>10.04.2025</t>
+        </is>
+      </c>
+      <c r="C61" s="10" t="inlineStr">
+        <is>
+          <t>Чт</t>
+        </is>
+      </c>
+      <c r="D61" s="11" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E61" s="11" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F61" s="11" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G61" s="12" t="inlineStr">
+        <is>
+          <t>нормальная физиология</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>12.04.2025</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D62" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E62" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F62" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G62" s="7" t="inlineStr">
+        <is>
+          <t>гигиена</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>13.04.2025</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>Вс</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E63" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F63" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G63" s="7" t="inlineStr">
+        <is>
+          <t>микробиология, вирусология</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>14.04.2025</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D64" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E64" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F64" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G64" s="7" t="inlineStr">
+        <is>
+          <t>нормальная физиология</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>15.04.2025</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>Вт</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E65" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F65" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G65" s="7" t="inlineStr">
+        <is>
+          <t>патологическая анатомия</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>16.04.2025</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>Ср</t>
+        </is>
+      </c>
+      <c r="D66" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E66" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F66" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G66" s="7" t="inlineStr">
+        <is>
+          <t>философия</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="n"/>
+      <c r="B67" s="9" t="inlineStr">
+        <is>
+          <t>17.04.2025</t>
+        </is>
+      </c>
+      <c r="C67" s="10" t="inlineStr">
+        <is>
+          <t>Чт</t>
+        </is>
+      </c>
+      <c r="D67" s="11" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E67" s="11" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F67" s="11" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G67" s="12" t="inlineStr">
+        <is>
+          <t>топографическая анатомия и оперативная хирургия</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>19.04.2025</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D68" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E68" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F68" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G68" s="7" t="inlineStr">
+        <is>
+          <t>основы клинического мышления</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>20.04.2025</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>Вс</t>
+        </is>
+      </c>
+      <c r="D69" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E69" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F69" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G69" s="7" t="inlineStr">
+        <is>
+          <t>микробиология, вирусология</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>21.04.2025</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D70" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E70" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F70" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G70" s="7" t="inlineStr">
+        <is>
+          <t>безопасность жизнедеятельности</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>22.04.2025</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>Вт</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E71" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F71" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G71" s="7" t="inlineStr">
+        <is>
+          <t>патофизиология</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>23.04.2025</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>Ср</t>
+        </is>
+      </c>
+      <c r="D72" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F72" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G72" s="7" t="inlineStr">
+        <is>
+          <t>биохимия</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="n"/>
+      <c r="B73" s="9" t="inlineStr">
+        <is>
+          <t>24.04.2025</t>
+        </is>
+      </c>
+      <c r="C73" s="10" t="inlineStr">
+        <is>
+          <t>Чт</t>
+        </is>
+      </c>
+      <c r="D73" s="11" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E73" s="11" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F73" s="11" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G73" s="12" t="inlineStr">
+        <is>
+          <t>нормальная физиология</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>26.04.2025</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D74" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E74" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F74" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G74" s="7" t="inlineStr">
+        <is>
+          <t>гигиена</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>27.04.2025</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>Вс</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E75" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F75" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G75" s="7" t="inlineStr">
+        <is>
+          <t>микробиология, вирусология</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>28.04.2025</t>
+        </is>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D76" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E76" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F76" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G76" s="7" t="inlineStr">
+        <is>
+          <t>нормальная физиология</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>30.04.2025</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>Ср</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E77" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F77" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G77" s="7" t="inlineStr">
+        <is>
+          <t>биохимия</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="8" t="n"/>
+      <c r="B78" s="9" t="inlineStr">
+        <is>
+          <t>01.05.2025</t>
+        </is>
+      </c>
+      <c r="C78" s="10" t="inlineStr">
+        <is>
+          <t>Чт</t>
+        </is>
+      </c>
+      <c r="D78" s="11" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E78" s="11" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F78" s="11" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G78" s="12" t="inlineStr">
+        <is>
+          <t>топографическая анатомия и оперативная хирургия</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>03.05.2025</t>
+        </is>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E79" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F79" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G79" s="7" t="inlineStr">
+        <is>
+          <t>основы клинического мышления</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>04.05.2025</t>
+        </is>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>Вс</t>
+        </is>
+      </c>
+      <c r="D80" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E80" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F80" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G80" s="7" t="inlineStr">
+        <is>
+          <t>микробиология, вирусология</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>05.05.2025</t>
+        </is>
+      </c>
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E81" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F81" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G81" s="7" t="inlineStr">
+        <is>
+          <t>безопасность жизнедеятельности</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="8" t="n"/>
+      <c r="B82" s="9" t="inlineStr">
+        <is>
+          <t>08.05.2025</t>
+        </is>
+      </c>
+      <c r="C82" s="10" t="inlineStr">
+        <is>
+          <t>Чт</t>
+        </is>
+      </c>
+      <c r="D82" s="11" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E82" s="11" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F82" s="11" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G82" s="12" t="inlineStr">
+        <is>
+          <t>нормальная физиология</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>10.05.2025</t>
+        </is>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E83" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F83" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G83" s="7" t="inlineStr">
+        <is>
+          <t>гигиена</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>11.05.2025</t>
+        </is>
+      </c>
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>Вс</t>
+        </is>
+      </c>
+      <c r="D84" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E84" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F84" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G84" s="7" t="inlineStr">
+        <is>
+          <t>микробиология, вирусология</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>12.05.2025</t>
+        </is>
+      </c>
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D85" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E85" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F85" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G85" s="7" t="inlineStr">
+        <is>
+          <t>безопасность жизнедеятельности</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>13.05.2025</t>
+        </is>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>Вт</t>
+        </is>
+      </c>
+      <c r="D86" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E86" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F86" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G86" s="7" t="inlineStr">
+        <is>
+          <t>патологическая анатомия</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>14.05.2025</t>
+        </is>
+      </c>
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>Ср</t>
+        </is>
+      </c>
+      <c r="D87" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E87" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F87" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G87" s="7" t="inlineStr">
+        <is>
+          <t>биохимия</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="n"/>
+      <c r="B88" s="9" t="inlineStr">
+        <is>
+          <t>15.05.2025</t>
+        </is>
+      </c>
+      <c r="C88" s="10" t="inlineStr">
+        <is>
+          <t>Чт</t>
+        </is>
+      </c>
+      <c r="D88" s="11" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E88" s="11" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F88" s="11" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G88" s="12" t="inlineStr">
+        <is>
+          <t>топографическая анатомия и оперативная хирургия</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>17.05.2025</t>
+        </is>
+      </c>
+      <c r="C89" s="5" t="inlineStr">
+        <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D89" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E89" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F89" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G89" s="7" t="inlineStr">
+        <is>
+          <t>основы клинического мышления</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>18.05.2025</t>
+        </is>
+      </c>
+      <c r="C90" s="5" t="inlineStr">
+        <is>
+          <t>Вс</t>
+        </is>
+      </c>
+      <c r="D90" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E90" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F90" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G90" s="7" t="inlineStr">
+        <is>
+          <t>микробиология, вирусология</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t>19.05.2025</t>
+        </is>
+      </c>
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D91" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E91" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F91" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G91" s="7" t="inlineStr">
+        <is>
+          <t>безопасность жизнедеятельности</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="4" t="inlineStr">
+        <is>
           <t>20.05.2025</t>
         </is>
       </c>
-      <c r="C46" s="5" t="inlineStr">
+      <c r="C92" s="5" t="inlineStr">
         <is>
           <t>Вт</t>
         </is>
       </c>
-      <c r="D46" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E46" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F46" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G46" s="7" t="inlineStr">
+      <c r="D92" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E92" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F92" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G92" s="7" t="inlineStr">
         <is>
           <t>патофизиология</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="8" t="n"/>
-      <c r="B47" s="9" t="inlineStr">
+    <row r="93">
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t>21.05.2025</t>
+        </is>
+      </c>
+      <c r="C93" s="5" t="inlineStr">
+        <is>
+          <t>Ср</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E93" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F93" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G93" s="7" t="inlineStr">
+        <is>
+          <t>биохимия</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="8" t="n"/>
+      <c r="B94" s="9" t="inlineStr">
         <is>
           <t>22.05.2025</t>
         </is>
       </c>
-      <c r="C47" s="10" t="inlineStr">
+      <c r="C94" s="10" t="inlineStr">
         <is>
           <t>Чт</t>
         </is>
       </c>
-      <c r="D47" s="11" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E47" s="11" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F47" s="11" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G47" s="12" t="inlineStr">
+      <c r="D94" s="11" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E94" s="11" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F94" s="11" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G94" s="12" t="inlineStr">
         <is>
           <t>топографическая анатомия и оперативная хирургия</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="3" t="n">
+    <row r="95">
+      <c r="A95" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B95" s="4" t="inlineStr">
+        <is>
+          <t>24.05.2025</t>
+        </is>
+      </c>
+      <c r="C95" s="5" t="inlineStr">
+        <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D95" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E95" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F95" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G95" s="7" t="inlineStr">
+        <is>
+          <t>гигиена</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="4" t="inlineStr">
         <is>
           <t>25.05.2025</t>
         </is>
       </c>
-      <c r="C48" s="5" t="inlineStr">
+      <c r="C96" s="5" t="inlineStr">
         <is>
           <t>Вс</t>
         </is>
       </c>
-      <c r="D48" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E48" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F48" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G48" s="7" t="inlineStr">
+      <c r="D96" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E96" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F96" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G96" s="7" t="inlineStr">
         <is>
           <t>микробиология, вирусология</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" s="4" t="inlineStr">
+    <row r="97">
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="C97" s="5" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E97" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F97" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G97" s="7" t="inlineStr">
+        <is>
+          <t>патофизиология</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="4" t="inlineStr">
         <is>
           <t>27.05.2025</t>
         </is>
       </c>
-      <c r="C49" s="5" t="inlineStr">
+      <c r="C98" s="5" t="inlineStr">
         <is>
           <t>Вт</t>
         </is>
       </c>
-      <c r="D49" s="6" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E49" s="6" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F49" s="6" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G49" s="7" t="inlineStr">
+      <c r="D98" s="6" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E98" s="6" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F98" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G98" s="7" t="inlineStr">
         <is>
           <t>патологическая анатомия</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="13" t="n"/>
-      <c r="B50" s="14" t="inlineStr">
+    <row r="99">
+      <c r="B99" s="4" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C99" s="5" t="inlineStr">
+        <is>
+          <t>Ср</t>
+        </is>
+      </c>
+      <c r="D99" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E99" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F99" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G99" s="7" t="inlineStr">
+        <is>
+          <t>биохимия</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="8" t="n"/>
+      <c r="B100" s="9" t="inlineStr">
         <is>
           <t>29.05.2025</t>
         </is>
       </c>
-      <c r="C50" s="15" t="inlineStr">
+      <c r="C100" s="10" t="inlineStr">
         <is>
           <t>Чт</t>
         </is>
       </c>
-      <c r="D50" s="16" t="inlineStr">
-        <is>
-          <t>'2-1</t>
-        </is>
-      </c>
-      <c r="E50" s="16" t="inlineStr">
-        <is>
-          <t>13:10-16:25</t>
-        </is>
-      </c>
-      <c r="F50" s="16" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
-      </c>
-      <c r="G50" s="17" t="inlineStr">
+      <c r="D100" s="11" t="inlineStr">
+        <is>
+          <t>'2-1</t>
+        </is>
+      </c>
+      <c r="E100" s="11" t="inlineStr">
+        <is>
+          <t>13:10-16:25</t>
+        </is>
+      </c>
+      <c r="F100" s="11" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G100" s="12" t="inlineStr">
         <is>
           <t>топографическая анатомия и оперативная хирургия</t>
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B101" s="4" t="inlineStr">
+        <is>
+          <t>31.05.2025</t>
+        </is>
+      </c>
+      <c r="C101" s="5" t="inlineStr">
+        <is>
+          <t>Сб</t>
+        </is>
+      </c>
+      <c r="D101" s="6" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E101" s="6" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F101" s="6" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G101" s="7" t="inlineStr">
+        <is>
+          <t>основы клинического мышления</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="13" t="n"/>
+      <c r="B102" s="14" t="inlineStr">
+        <is>
+          <t>02.06.2025</t>
+        </is>
+      </c>
+      <c r="C102" s="15" t="inlineStr">
+        <is>
+          <t>Пн</t>
+        </is>
+      </c>
+      <c r="D102" s="16" t="inlineStr">
+        <is>
+          <t>'1-1</t>
+        </is>
+      </c>
+      <c r="E102" s="16" t="inlineStr">
+        <is>
+          <t>09:00-12:15</t>
+        </is>
+      </c>
+      <c r="F102" s="16" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="G102" s="17" t="inlineStr">
+        <is>
+          <t>безопасность жизнедеятельности</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="19">
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A89:A94"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A62:A67"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/232б.xlsx
+++ b/output/232б.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E9" s="6" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E10" s="6" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E11" s="6" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E12" s="6" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E13" s="6" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="D14" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E14" s="11" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E15" s="6" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="D16" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E16" s="6" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E17" s="6" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E18" s="6" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E19" s="6" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="D20" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E20" s="11" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E21" s="6" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E22" s="6" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E23" s="6" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D24" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E24" s="6" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="D25" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E25" s="6" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D26" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E26" s="11" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="D27" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E27" s="6" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D28" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E28" s="6" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="D29" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E29" s="6" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="D30" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E30" s="6" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D31" s="11" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E31" s="11" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D32" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E32" s="6" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="D33" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E33" s="6" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="D34" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E34" s="6" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="D35" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E35" s="6" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="D36" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E36" s="6" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D37" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E37" s="11" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="D38" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E38" s="6" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="D39" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E39" s="6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="D40" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E40" s="6" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="D41" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E41" s="6" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D42" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E42" s="6" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="D43" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E43" s="11" t="inlineStr">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="D44" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E44" s="6" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="D45" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E45" s="6" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="D46" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E46" s="6" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="D47" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E47" s="6" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D48" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E48" s="6" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D49" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E49" s="11" t="inlineStr">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="D50" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E50" s="6" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D51" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E51" s="6" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="D52" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E52" s="6" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="D53" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E53" s="6" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="D54" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E54" s="6" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="D55" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E55" s="11" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="D56" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E56" s="6" t="inlineStr">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="D57" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E57" s="6" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="D58" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E58" s="6" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D59" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E59" s="6" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="D60" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E60" s="6" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="D61" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E61" s="11" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="D62" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E62" s="6" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="D63" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E63" s="6" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D64" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E64" s="6" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D65" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E65" s="6" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="D66" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E66" s="6" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="D67" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E67" s="11" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="D68" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E68" s="6" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="D69" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E69" s="6" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="D70" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E70" s="6" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="D71" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E71" s="6" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="D72" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E72" s="6" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="D73" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E73" s="11" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="D74" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E74" s="6" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="D75" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E75" s="6" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="D76" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E76" s="6" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="D77" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E77" s="6" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="D78" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E78" s="11" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="D79" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E79" s="6" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="D80" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E80" s="6" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="D81" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E81" s="6" t="inlineStr">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="D82" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E82" s="11" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="D83" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E83" s="6" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="D84" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E84" s="6" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="D85" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E85" s="6" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D86" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E86" s="6" t="inlineStr">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="D87" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E87" s="6" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="D88" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E88" s="11" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="D89" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E89" s="6" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="D90" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E90" s="6" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="D91" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E91" s="6" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="D92" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E92" s="6" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="D93" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E93" s="6" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="D94" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E94" s="11" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="D95" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E95" s="6" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="D96" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E96" s="6" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="D97" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E97" s="6" t="inlineStr">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="D98" s="6" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E98" s="6" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="D99" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E99" s="6" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D100" s="11" t="inlineStr">
         <is>
-          <t>'2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E100" s="11" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="D101" s="6" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E101" s="6" t="inlineStr">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="D102" s="16" t="inlineStr">
         <is>
-          <t>'1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E102" s="16" t="inlineStr">
